--- a/src/test/java/ApachePOI/Resource/FirefoxScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/Resource/FirefoxScenarioStatus.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Proje\MersysCampus\src\test\java\ApachePOI\Resource\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="8">
   <si>
     <t>Create a subject categories</t>
   </si>
@@ -41,12 +41,16 @@
   </si>
   <si>
     <t>Login with valid username and password</t>
+  </si>
+  <si>
+    <t>22.01.23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -392,13 +396,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="38.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -457,6 +461,174 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
